--- a/biology/Médecine/Bilan_préopératoire/Bilan_préopératoire.xlsx
+++ b/biology/Médecine/Bilan_préopératoire/Bilan_préopératoire.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Bilan_pr%C3%A9op%C3%A9ratoire</t>
+          <t>Bilan_préopératoire</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Un bilan préopératoire est un bilan effectué juste avant une opération chirurgicale, dans le but de prévenir les risques pour le patient.
 Il n'existe pas de bilan pré-opératoire type. On doit l'adapter à chaque patient.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Bilan_pr%C3%A9op%C3%A9ratoire</t>
+          <t>Bilan_préopératoire</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -514,14 +526,15 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Interrogatoire
-Antécédents personnels, médicaux et chirurgicaux
+          <t>Interrogatoire</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Antécédents personnels, médicaux et chirurgicaux
 Traitements en cours, allergies connues
-Heure de la dernière ingestion alimentaire si la chirurgie est prévue à court terme
-Examen physique
-ORL, pour prévoir d'éventuelles difficultés d'intubation trachéale (morphologie)
-Cardiovasculaire
-Pulmonaire</t>
+Heure de la dernière ingestion alimentaire si la chirurgie est prévue à court terme</t>
         </is>
       </c>
     </row>
@@ -531,7 +544,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Bilan_pr%C3%A9op%C3%A9ratoire</t>
+          <t>Bilan_préopératoire</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -546,21 +559,20 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Paraclinique</t>
+          <t>Clinique</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Biologie
-Numération formule sanguine (NFS)
-Bilan de coagulation : TP, TCA, plaquettes
-Groupage, et RAI de moins de 72 heures, si la chirurgie est à risque de pertes sanguines.
-Dosage de la créatinine (pour évaluer les fonctions rénales)
-Imagerie
-Radiographie thoracique
-Autres
-Cardiovasculaire : ECG, épreuve d’effort, échocœur
-Pulmonaire : EFR</t>
+          <t>Examen physique</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>ORL, pour prévoir d'éventuelles difficultés d'intubation trachéale (morphologie)
+Cardiovasculaire
+Pulmonaire</t>
         </is>
       </c>
     </row>
@@ -570,7 +582,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Bilan_pr%C3%A9op%C3%A9ratoire</t>
+          <t>Bilan_préopératoire</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -585,12 +597,126 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>Paraclinique</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Biologie</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Numération formule sanguine (NFS)
+Bilan de coagulation : TP, TCA, plaquettes
+Groupage, et RAI de moins de 72 heures, si la chirurgie est à risque de pertes sanguines.
+Dosage de la créatinine (pour évaluer les fonctions rénales)</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Bilan_préopératoire</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Bilan_pr%C3%A9op%C3%A9ratoire</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Paraclinique</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Imagerie</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Radiographie thoracique</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Bilan_préopératoire</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Bilan_pr%C3%A9op%C3%A9ratoire</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Paraclinique</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Autres</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Cardiovasculaire : ECG, épreuve d’effort, échocœur
+Pulmonaire : EFR</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Bilan_préopératoire</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Bilan_pr%C3%A9op%C3%A9ratoire</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
           <t>Classification ASA</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Elle permet de classer les patients en fonction du risque anesthésique[1],[2].
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Elle permet de classer les patients en fonction du risque anesthésique,.
 ASA 1 : Patient en bon état général
 ASA 2 : Patient présentant une perturbation modérée d'une grande fonction(ex. : hypertension artérielle modérée, bronchite chronique)
 ASA 3 : Patient présentant une perturbation sévère d'une grande fonction limitant son activité sans entrainer d'incapacité (ex. : angor stable)
